--- a/The Sample/Xls files/Healthcare/HC 05 -Canopy Growth Corp.xlsx
+++ b/The Sample/Xls files/Healthcare/HC 05 -Canopy Growth Corp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81703c0c110a5f03/DBA/Thesis/العينة/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81703c0c110a5f03/Desktop/HW/Forecasting-bankrupt-companies-Project/The Sample/Xls files/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{F287330B-D5DB-4367-B966-67C4ABDEDBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62B6799-37A5-4589-A582-58BCD8B315B6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{F287330B-D5DB-4367-B966-67C4ABDEDBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DC6314-EA1A-45D1-AB27-F1427F7CFB54}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="806">
   <si>
     <t>Canopy Growth Corp</t>
   </si>
@@ -2652,22 +2650,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2743,6 +2729,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3126,11 +3124,11 @@
   <sheetData>
     <row r="1" spans="3:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:13" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="3:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
@@ -3140,10 +3138,10 @@
     <row r="4" spans="3:13" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="5" spans="3:13" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3335,7 +3333,7 @@
       <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="35">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -4612,7 +4610,7 @@
   <dimension ref="C1:M48"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4720,7 +4718,7 @@
       <c r="C12" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="35">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5095,8 +5093,8 @@
       <c r="G26" s="5">
         <v>-140</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>3</v>
+      <c r="H26" s="5">
+        <v>0</v>
       </c>
       <c r="I26" s="5">
         <v>566</v>
@@ -5730,11 +5728,11 @@
   <sheetData>
     <row r="1" spans="3:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
@@ -5742,10 +5740,10 @@
       </c>
     </row>
     <row r="6" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6760,11 +6758,11 @@
   <sheetData>
     <row r="1" spans="3:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="3:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
@@ -6774,10 +6772,10 @@
     <row r="4" spans="3:13" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="5" spans="3:13" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -7506,1950 +7504,1950 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EAFA0-4940-4FD1-9D63-7EE7B14ACA76}">
   <dimension ref="A3:BJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="30" customWidth="1"/>
-    <col min="4" max="6" width="32.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="12" width="31.28515625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="12" customWidth="1"/>
-    <col min="14" max="17" width="19.28515625" style="14" customWidth="1"/>
-    <col min="18" max="20" width="19.5703125" style="14" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="14"/>
-    <col min="22" max="25" width="21.28515625" style="14" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="14"/>
-    <col min="27" max="35" width="16.140625" style="14" customWidth="1"/>
-    <col min="36" max="36" width="2.85546875" style="14" customWidth="1"/>
-    <col min="37" max="38" width="16.140625" style="14" customWidth="1"/>
-    <col min="39" max="41" width="9.140625" style="14"/>
-    <col min="42" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="21.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="24" customWidth="1"/>
+    <col min="4" max="6" width="32.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10" style="7" customWidth="1"/>
+    <col min="8" max="12" width="31.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="7" customWidth="1"/>
+    <col min="14" max="17" width="19.28515625" style="8" customWidth="1"/>
+    <col min="18" max="20" width="19.5703125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="8"/>
+    <col min="22" max="25" width="21.28515625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="8"/>
+    <col min="27" max="35" width="16.140625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="2.85546875" style="8" customWidth="1"/>
+    <col min="37" max="38" width="16.140625" style="8" customWidth="1"/>
+    <col min="39" max="41" width="9.140625" style="8"/>
+    <col min="42" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>760</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="13" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="N3" s="41" t="s">
         <v>761</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="V3" s="11" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="V3" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="AA3" s="11" t="s">
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="AA3" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
     </row>
     <row r="4" spans="1:62" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AG4" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="AH4" s="23" t="s">
+      <c r="AH4" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="AI4" s="22" t="s">
+      <c r="AI4" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="23" t="s">
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="16" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="63" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="19" t="s">
         <v>785</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="28"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="28"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="22"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="22"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="14"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
     </row>
     <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+      <c r="A7" s="26">
         <v>2013</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="27">
         <f>sheet!D18/sheet!D35</f>
         <v>2.4138493153776062</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="27">
         <f>(sheet!D18-sheet!D15)/sheet!D35</f>
         <v>2.4138493153776062</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="27">
         <f>sheet!D12/sheet!D35</f>
         <v>1.6260950962564222</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="27">
         <f>Sheet2!D20/sheet!D35</f>
         <v>-1.0750520751874668</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="27">
         <f>sheet!D18/sheet!D35</f>
         <v>2.4138493153776062</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="34">
+      <c r="G7" s="25"/>
+      <c r="H7" s="28">
         <f>Sheet1!D33/sheet!D51</f>
         <v>-0.24338153788278605</v>
       </c>
-      <c r="I7" s="34" t="e">
+      <c r="I7" s="28" t="e">
         <f>Sheet1!D33/Sheet1!D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="28">
         <f>Sheet1!D12/sheet!D27</f>
         <v>0</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="28">
         <f>Sheet1!D30/sheet!D27</f>
         <v>-0.18102959984585049</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="28">
         <f>Sheet1!D38</f>
         <v>-15.77</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="34">
+      <c r="M7" s="25"/>
+      <c r="N7" s="28">
         <f>sheet!D40/sheet!D27</f>
         <v>0.25619008976335994</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="28">
         <f>sheet!D51/sheet!D27</f>
         <v>0.74380991023664</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="28">
         <f>sheet!D40/sheet!D51</f>
         <v>0.34442951920586018</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="27">
         <f>Sheet1!D24/Sheet1!D26</f>
         <v>-4340.1860465116279</v>
       </c>
-      <c r="R7" s="33" t="e">
+      <c r="R7" s="27" t="e">
         <f>ABS(Sheet2!D20/(Sheet1!D26+Sheet2!D30))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="27">
         <f>sheet!D40/Sheet1!D43</f>
         <v>-1.4184752245476815</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="27">
         <f>Sheet2!D20/sheet!D40</f>
         <v>-1.0464719070486117</v>
       </c>
-      <c r="V7" s="33" t="e">
+      <c r="V7" s="27" t="e">
         <f>ABS(Sheet1!D15/sheet!D15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" s="33" t="e">
+      <c r="W7" s="27" t="e">
         <f>Sheet1!D12/sheet!D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="27">
         <f>Sheet1!D12/sheet!D27</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="33">
+      <c r="Y7" s="27">
         <f>Sheet1!D12/(sheet!D18-sheet!D35)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="13">
         <f>Sheet1!D43</f>
         <v>-930.76</v>
       </c>
-      <c r="AB7" s="19" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sheet3!D17</f>
         <v>NA</v>
       </c>
-      <c r="AC7" s="19" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sheet3!D18</f>
         <v>NA</v>
       </c>
-      <c r="AD7" s="19" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sheet3!D20</f>
         <v>NA</v>
       </c>
-      <c r="AE7" s="19" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sheet3!D21</f>
         <v>NM</v>
       </c>
-      <c r="AF7" s="19" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sheet3!D22</f>
         <v>NA</v>
       </c>
-      <c r="AG7" s="19" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sheet3!D24</f>
         <v>NA</v>
       </c>
-      <c r="AH7" s="19" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sheet3!D25</f>
         <v>NA</v>
       </c>
-      <c r="AI7" s="19" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sheet3!D31</f>
         <v/>
       </c>
-      <c r="AK7" s="19">
+      <c r="AK7" s="13">
         <f>Sheet3!D29</f>
         <v>6.8</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AL7" s="13">
         <f>Sheet3!D30</f>
         <v>1</v>
       </c>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-    </row>
-    <row r="8" spans="1:62" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:62" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
         <v>2014</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="30">
         <f>sheet!E18/sheet!E35</f>
         <v>3.7505197740401659</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="30">
         <f>(sheet!E18-sheet!E15)/sheet!E35</f>
         <v>2.5834446722111668</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="30">
         <f>sheet!E12/sheet!E35</f>
         <v>2.1071685206520998</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="30">
         <f>Sheet2!E20/sheet!E35</f>
         <v>-3.5564624052920064</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <f>sheet!E18/sheet!E35</f>
         <v>3.7505197740401659</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="37">
+      <c r="G8" s="25"/>
+      <c r="H8" s="31">
         <f>Sheet1!E33/sheet!E51</f>
         <v>-0.41219776317682905</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="31">
         <f>Sheet1!E33/Sheet1!E12</f>
         <v>-7.7958202331926865</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="31">
         <f>Sheet1!E12/sheet!E27</f>
         <v>4.4128049619183138E-2</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="31">
         <f>Sheet1!E30/sheet!E27</f>
         <v>-0.34401434207255877</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="31">
         <f>Sheet1!E38</f>
         <v>-0.3</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="37">
+      <c r="M8" s="25"/>
+      <c r="N8" s="31">
         <f>sheet!E40/sheet!E27</f>
         <v>0.16541434038549174</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="31">
         <f>sheet!E51/sheet!E27</f>
         <v>0.83458565961450826</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="31">
         <f>sheet!E40/sheet!E51</f>
         <v>0.1981993561474516</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="30">
         <f>Sheet1!E24/Sheet1!E26</f>
         <v>-136.70424675226013</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="30">
         <f>ABS(Sheet2!E20/(Sheet1!E26+Sheet2!E30))</f>
         <v>383.698716434365</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="30">
         <f>sheet!E40/Sheet1!E43</f>
         <v>-0.67373479104214429</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="30">
         <f>Sheet2!E20/sheet!E40</f>
         <v>-2.2692112721249833</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="36">
+      <c r="U8" s="8"/>
+      <c r="V8" s="30">
         <f>ABS(Sheet1!E15/sheet!E15)</f>
         <v>0.22868245536737544</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="30">
         <f>Sheet1!E12/sheet!E14</f>
         <v>6.2730971193280443</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="30">
         <f>Sheet1!E12/sheet!E27</f>
         <v>4.4128049619183138E-2</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="30">
         <f>Sheet1!E12/(sheet!E18-sheet!E35)</f>
         <v>0.15200927715910884</v>
       </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="38" t="str">
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="32" t="str">
         <f>Sheet1!E43</f>
         <v>-6,374.204</v>
       </c>
-      <c r="AB8" s="38" t="str">
+      <c r="AB8" s="32" t="str">
         <f>Sheet3!E17</f>
         <v>NA</v>
       </c>
-      <c r="AC8" s="38" t="str">
+      <c r="AC8" s="32" t="str">
         <f>Sheet3!E18</f>
         <v>NA</v>
       </c>
-      <c r="AD8" s="38" t="str">
+      <c r="AD8" s="32" t="str">
         <f>Sheet3!E20</f>
         <v>NM</v>
       </c>
-      <c r="AE8" s="38" t="str">
+      <c r="AE8" s="32" t="str">
         <f>Sheet3!E21</f>
         <v>NM</v>
       </c>
-      <c r="AF8" s="38" t="str">
+      <c r="AF8" s="32" t="str">
         <f>Sheet3!E22</f>
         <v>NA</v>
       </c>
-      <c r="AG8" s="38" t="str">
+      <c r="AG8" s="32" t="str">
         <f>Sheet3!E24</f>
         <v>0.0x</v>
       </c>
-      <c r="AH8" s="38" t="str">
+      <c r="AH8" s="32" t="str">
         <f>Sheet3!E25</f>
         <v>0.0x</v>
       </c>
-      <c r="AI8" s="38" t="str">
+      <c r="AI8" s="32" t="str">
         <f>Sheet3!E31</f>
         <v/>
       </c>
-      <c r="AK8" s="38">
+      <c r="AK8" s="32">
         <f>Sheet3!E29</f>
         <v>7.5</v>
       </c>
-      <c r="AL8" s="38">
+      <c r="AL8" s="32">
         <f>Sheet3!E30</f>
         <v>3</v>
       </c>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
     </row>
     <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+      <c r="A9" s="26">
         <v>2015</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="27">
         <f>sheet!F18/sheet!F35</f>
         <v>6.4919337016574588</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <f>(sheet!F18-sheet!F15)/sheet!F35</f>
         <v>5.0813259668508284</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="27">
         <f>sheet!F12/sheet!F35</f>
         <v>4.7394475138121548</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="27">
         <f>Sheet2!F20/sheet!F35</f>
         <v>-1.9254806629834254</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="27">
         <f>sheet!F18/sheet!F35</f>
         <v>6.4919337016574588</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="34">
+      <c r="G9" s="25"/>
+      <c r="H9" s="28">
         <f>Sheet1!F33/sheet!F51</f>
         <v>-0.18055978168997078</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="28">
         <f>Sheet1!F33/Sheet1!F12</f>
         <v>-3.9417967102488403</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="28">
         <f>Sheet1!F12/sheet!F27</f>
         <v>3.9703604471051201E-2</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="28">
         <f>Sheet1!F30/sheet!F27</f>
         <v>-0.15650353748901077</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="28">
         <f>Sheet1!F38</f>
         <v>-0.23</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="34">
+      <c r="M9" s="25"/>
+      <c r="N9" s="28">
         <f>sheet!F40/sheet!F27</f>
         <v>0.13323146481349687</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="28">
         <f>sheet!F51/sheet!F27</f>
         <v>0.8667685351865031</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="28">
         <f>sheet!F40/sheet!F51</f>
         <v>0.15371054601656645</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="27">
         <f>Sheet1!F24/Sheet1!F26</f>
         <v>-184.25490196078434</v>
       </c>
-      <c r="R9" s="33" t="e">
+      <c r="R9" s="27" t="e">
         <f>ABS(Sheet2!F20/(Sheet1!F26+Sheet2!F30))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="27">
         <f>sheet!F40/Sheet1!F43</f>
         <v>-1.0507461701003697</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="27">
         <f>Sheet2!F20/sheet!F40</f>
         <v>-1.3688609583660643</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="27">
         <f>ABS(Sheet1!F15/sheet!F15)</f>
         <v>5.7026476578411409E-2</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="27">
         <f>Sheet1!F12/sheet!F14</f>
         <v>5.5461988304093568</v>
       </c>
-      <c r="X9" s="33">
+      <c r="X9" s="27">
         <f>Sheet1!F12/sheet!F27</f>
         <v>3.9703604471051201E-2</v>
       </c>
-      <c r="Y9" s="33">
+      <c r="Y9" s="27">
         <f>Sheet1!F12/(sheet!F18-sheet!F35)</f>
         <v>7.6326908373908486E-2</v>
       </c>
-      <c r="AA9" s="19" t="str">
+      <c r="AA9" s="13" t="str">
         <f>Sheet1!F43</f>
         <v>-6,057.6</v>
       </c>
-      <c r="AB9" s="19" t="str">
+      <c r="AB9" s="13" t="str">
         <f>Sheet3!F17</f>
         <v>NA</v>
       </c>
-      <c r="AC9" s="19" t="str">
+      <c r="AC9" s="13" t="str">
         <f>Sheet3!F18</f>
         <v>NA</v>
       </c>
-      <c r="AD9" s="19" t="str">
+      <c r="AD9" s="13" t="str">
         <f>Sheet3!F20</f>
         <v>61.6x</v>
       </c>
-      <c r="AE9" s="19" t="str">
+      <c r="AE9" s="13" t="str">
         <f>Sheet3!F21</f>
         <v>NA</v>
       </c>
-      <c r="AF9" s="19" t="str">
+      <c r="AF9" s="13" t="str">
         <f>Sheet3!F22</f>
         <v>NA</v>
       </c>
-      <c r="AG9" s="19" t="str">
+      <c r="AG9" s="13" t="str">
         <f>Sheet3!F24</f>
         <v>NA</v>
       </c>
-      <c r="AH9" s="19" t="str">
+      <c r="AH9" s="13" t="str">
         <f>Sheet3!F25</f>
         <v>NA</v>
       </c>
-      <c r="AI9" s="19" t="str">
+      <c r="AI9" s="13" t="str">
         <f>Sheet3!F31</f>
         <v/>
       </c>
-      <c r="AK9" s="19">
+      <c r="AK9" s="13">
         <f>Sheet3!F29</f>
         <v>11.9</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL9" s="13">
         <f>Sheet3!F30</f>
         <v>6</v>
       </c>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-    </row>
-    <row r="10" spans="1:62" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:62" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
         <v>2016</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="30">
         <f>sheet!G18/sheet!G35</f>
         <v>6.2346725983595164</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
         <f>(sheet!G18-sheet!G15)/sheet!G35</f>
         <v>2.4151258167663006</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="30">
         <f>sheet!G12/sheet!G35</f>
         <v>2.1405533157236203</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="30">
         <f>Sheet2!G20/sheet!G35</f>
         <v>-1.8805783400528291</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <f>sheet!G18/sheet!G35</f>
         <v>6.2346725983595164</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="37">
+      <c r="G10" s="25"/>
+      <c r="H10" s="31">
         <f>Sheet1!G33/sheet!G51</f>
         <v>-2.8242517267843437E-2</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="31">
         <f>Sheet1!G33/Sheet1!G12</f>
         <v>-0.27529726750137806</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="31">
         <f>Sheet1!G12/sheet!G27</f>
         <v>8.8580576307363934E-2</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="31">
         <f>Sheet1!G30/sheet!G27</f>
         <v>-2.43859906111146E-2</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="31">
         <f>Sheet1!G38</f>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="37">
+      <c r="M10" s="25"/>
+      <c r="N10" s="31">
         <f>sheet!G40/sheet!G27</f>
         <v>0.13655038678580647</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="31">
         <f>sheet!G51/sheet!G27</f>
         <v>0.86344961321419356</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="31">
         <f>sheet!G40/sheet!G51</f>
         <v>0.15814517106272974</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="30">
         <f>Sheet1!G24/Sheet1!G26</f>
         <v>23.071428571428573</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="30">
         <f>ABS(Sheet2!G20/(Sheet1!G26+Sheet2!G30))</f>
         <v>6.6308823529411764</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="30">
         <f>sheet!G40/Sheet1!G43</f>
         <v>21.117583603020496</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="30">
         <f>Sheet2!G20/sheet!G40</f>
         <v>-0.69099918267266036</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="36">
+      <c r="U10" s="8"/>
+      <c r="V10" s="30">
         <f>ABS(Sheet1!G15/sheet!G15)</f>
         <v>0.22883453446895247</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="30">
         <f>Sheet1!G12/sheet!G14</f>
         <v>11.440540540540541</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="30">
         <f>Sheet1!G12/sheet!G27</f>
         <v>8.8580576307363934E-2</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="30">
         <f>Sheet1!G12/(sheet!G18-sheet!G35)</f>
         <v>0.33726396303083422</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="38">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="32">
         <f>Sheet1!G43</f>
         <v>927</v>
       </c>
-      <c r="AB10" s="38" t="str">
+      <c r="AB10" s="32" t="str">
         <f>Sheet3!G17</f>
         <v>52.8x</v>
       </c>
-      <c r="AC10" s="38" t="str">
+      <c r="AC10" s="32" t="str">
         <f>Sheet3!G18</f>
         <v>80.8x</v>
       </c>
-      <c r="AD10" s="38" t="str">
+      <c r="AD10" s="32" t="str">
         <f>Sheet3!G20</f>
         <v>-7.8x</v>
       </c>
-      <c r="AE10" s="38" t="str">
+      <c r="AE10" s="32" t="str">
         <f>Sheet3!G21</f>
         <v>1.8x</v>
       </c>
-      <c r="AF10" s="38" t="str">
+      <c r="AF10" s="32" t="str">
         <f>Sheet3!G22</f>
         <v>29.6x</v>
       </c>
-      <c r="AG10" s="38" t="str">
+      <c r="AG10" s="32" t="str">
         <f>Sheet3!G24</f>
         <v>817.2x</v>
       </c>
-      <c r="AH10" s="38" t="str">
+      <c r="AH10" s="32" t="str">
         <f>Sheet3!G25</f>
         <v>2.0x</v>
       </c>
-      <c r="AI10" s="38" t="str">
+      <c r="AI10" s="32" t="str">
         <f>Sheet3!G31</f>
         <v/>
       </c>
-      <c r="AK10" s="38">
+      <c r="AK10" s="32">
         <f>Sheet3!G29</f>
         <v>12</v>
       </c>
-      <c r="AL10" s="38">
+      <c r="AL10" s="32">
         <f>Sheet3!G30</f>
         <v>4</v>
       </c>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
     </row>
     <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
+      <c r="A11" s="26">
         <v>2017</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="27">
         <f>sheet!H18/sheet!H35</f>
         <v>10.120917067647891</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="27">
         <f>(sheet!H18-sheet!H15)/sheet!H35</f>
         <v>6.6844041890744412</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <f>sheet!H12/sheet!H35</f>
         <v>5.7628078120577415</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="27">
         <f>Sheet2!H20/sheet!H35</f>
         <v>-1.5337107274271158</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <f>sheet!H18/sheet!H35</f>
         <v>10.120917067647891</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="34">
+      <c r="G11" s="25"/>
+      <c r="H11" s="28">
         <f>Sheet1!H33/sheet!H51</f>
         <v>-1.1756595792573696E-2</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="28">
         <f>Sheet1!H33/Sheet1!H12</f>
         <v>-0.18851986464469231</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="28">
         <f>Sheet1!H12/sheet!H27</f>
         <v>5.6772256375227689E-2</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="28">
         <f>Sheet1!H30/sheet!H27</f>
         <v>-1.0775273224043716E-2</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="28">
         <f>Sheet1!H38</f>
         <v>-6.3E-2</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="34">
+      <c r="M11" s="25"/>
+      <c r="N11" s="28">
         <f>sheet!H40/sheet!H27</f>
         <v>8.964310109289618E-2</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="28">
         <f>sheet!H51/sheet!H27</f>
         <v>0.91035689890710381</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="28">
         <f>sheet!H40/sheet!H51</f>
         <v>9.8470282589733726E-2</v>
       </c>
-      <c r="Q11" s="33" t="e">
+      <c r="Q11" s="27" t="e">
         <f>Sheet1!H24/Sheet1!H26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" s="33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="27">
         <f>ABS(Sheet2!H20/(Sheet1!H26+Sheet2!H30))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" s="33">
+        <v>28.251303441084463</v>
+      </c>
+      <c r="S11" s="27">
         <f>sheet!H40/Sheet1!H43</f>
         <v>-91.031791907514446</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="27">
         <f>Sheet2!H20/sheet!H40</f>
         <v>-0.43008857986474902</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="27">
         <f>ABS(Sheet1!H15/sheet!H15)</f>
         <v>1.9454419661977401E-2</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="27">
         <f>Sheet1!H12/sheet!H14</f>
         <v>14.278811739441661</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="27">
         <f>Sheet1!H12/sheet!H27</f>
         <v>5.6772256375227689E-2</v>
       </c>
-      <c r="Y11" s="33">
+      <c r="Y11" s="27">
         <f>Sheet1!H12/(sheet!H18-sheet!H35)</f>
         <v>0.24760893986507035</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="13">
         <f>Sheet1!H43</f>
         <v>-692</v>
       </c>
-      <c r="AB11" s="19" t="str">
+      <c r="AB11" s="13" t="str">
         <f>Sheet3!H17</f>
         <v>163.4x</v>
       </c>
-      <c r="AC11" s="19" t="str">
+      <c r="AC11" s="13" t="str">
         <f>Sheet3!H18</f>
         <v>311.9x</v>
       </c>
-      <c r="AD11" s="19" t="str">
+      <c r="AD11" s="13" t="str">
         <f>Sheet3!H20</f>
         <v>-36.4x</v>
       </c>
-      <c r="AE11" s="19" t="str">
+      <c r="AE11" s="13" t="str">
         <f>Sheet3!H21</f>
         <v>4.9x</v>
       </c>
-      <c r="AF11" s="19" t="str">
+      <c r="AF11" s="13" t="str">
         <f>Sheet3!H22</f>
         <v>42.1x</v>
       </c>
-      <c r="AG11" s="19" t="str">
+      <c r="AG11" s="13" t="str">
         <f>Sheet3!H24</f>
         <v>-2,095.4x</v>
       </c>
-      <c r="AH11" s="19" t="str">
+      <c r="AH11" s="13" t="str">
         <f>Sheet3!H25</f>
         <v>5.4x</v>
       </c>
-      <c r="AI11" s="19" t="str">
+      <c r="AI11" s="13" t="str">
         <f>Sheet3!H31</f>
         <v/>
       </c>
-      <c r="AK11" s="19">
+      <c r="AK11" s="13">
         <f>Sheet3!H29</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="AL11" s="19">
+      <c r="AL11" s="13">
         <f>Sheet3!H30</f>
         <v>3</v>
       </c>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-    </row>
-    <row r="12" spans="1:62" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:62" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
         <v>2018</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="30">
         <f>sheet!I18/sheet!I35</f>
         <v>5.2351132264093536</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="30">
         <f>(sheet!I18-sheet!I15)/sheet!I35</f>
         <v>3.8580432042421871</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="30">
         <f>sheet!I12/sheet!I35</f>
         <v>3.5050202112400575</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="30">
         <f>Sheet2!I20/sheet!I35</f>
         <v>-0.88566523232059813</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <f>sheet!I18/sheet!I35</f>
         <v>5.2351132264093536</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="37">
+      <c r="G12" s="25"/>
+      <c r="H12" s="31">
         <f>Sheet1!I33/sheet!I51</f>
         <v>-5.411916302429623E-2</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="31">
         <f>Sheet1!I33/Sheet1!I12</f>
         <v>-0.86317801611330636</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="31">
         <f>Sheet1!I12/sheet!I27</f>
         <v>5.425047170238103E-2</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="31">
         <f>Sheet1!I30/sheet!I27</f>
         <v>-3.5539668586883365E-2</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="31">
         <f>Sheet1!I38</f>
         <v>-0.38</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="37">
+      <c r="M12" s="25"/>
+      <c r="N12" s="31">
         <f>sheet!I40/sheet!I27</f>
         <v>0.13472766538814615</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="31">
         <f>sheet!I51/sheet!I27</f>
         <v>0.86527233461185382</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="31">
         <f>sheet!I40/sheet!I51</f>
         <v>0.15570550449712767</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="30">
         <f>Sheet1!I24/Sheet1!I26</f>
         <v>-91.911660777385165</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="30">
         <f>ABS(Sheet2!I20/(Sheet1!I26+Sheet2!I30))</f>
         <v>86.15856236786469</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="30">
         <f>sheet!I40/Sheet1!I43</f>
         <v>-2.0226633927172037</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="30">
         <f>Sheet2!I20/sheet!I40</f>
         <v>-0.42104773761616704</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="36">
+      <c r="U12" s="8"/>
+      <c r="V12" s="30">
         <f>ABS(Sheet1!I15/sheet!I15)</f>
         <v>0.35476489201366695</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="30">
         <f>Sheet1!I12/sheet!I14</f>
         <v>13.29490022172949</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="30">
         <f>Sheet1!I12/sheet!I27</f>
         <v>5.425047170238103E-2</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="Y12" s="30">
         <f>Sheet1!I12/(sheet!I18-sheet!I35)</f>
         <v>0.19999538164305747</v>
       </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="38" t="str">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="32" t="str">
         <f>Sheet1!I43</f>
         <v>-95,705</v>
       </c>
-      <c r="AB12" s="38" t="str">
+      <c r="AB12" s="32" t="str">
         <f>Sheet3!I17</f>
         <v>-247.6x</v>
       </c>
-      <c r="AC12" s="38" t="str">
+      <c r="AC12" s="32" t="str">
         <f>Sheet3!I18</f>
         <v>-143.5x</v>
       </c>
-      <c r="AD12" s="38" t="str">
+      <c r="AD12" s="32" t="str">
         <f>Sheet3!I20</f>
         <v>-36.1x</v>
       </c>
-      <c r="AE12" s="38" t="str">
+      <c r="AE12" s="32" t="str">
         <f>Sheet3!I21</f>
         <v>6.3x</v>
       </c>
-      <c r="AF12" s="38" t="str">
+      <c r="AF12" s="32" t="str">
         <f>Sheet3!I22</f>
         <v>91.0x</v>
       </c>
-      <c r="AG12" s="38" t="str">
+      <c r="AG12" s="32" t="str">
         <f>Sheet3!I24</f>
         <v>-321.0x</v>
       </c>
-      <c r="AH12" s="38" t="str">
+      <c r="AH12" s="32" t="str">
         <f>Sheet3!I25</f>
         <v>6.9x</v>
       </c>
-      <c r="AI12" s="38" t="str">
+      <c r="AI12" s="32" t="str">
         <f>Sheet3!I31</f>
         <v/>
       </c>
-      <c r="AK12" s="38">
+      <c r="AK12" s="32">
         <f>Sheet3!I29</f>
         <v>11.4</v>
       </c>
-      <c r="AL12" s="38">
+      <c r="AL12" s="32">
         <f>Sheet3!I30</f>
         <v>1</v>
       </c>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
     </row>
     <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="26">
         <v>2019</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="27">
         <f>sheet!J18/sheet!J35</f>
         <v>11.949414934060142</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="27">
         <f>(sheet!J18-sheet!J15)/sheet!J35</f>
         <v>11.436036272387851</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="27">
         <f>sheet!J12/sheet!J35</f>
         <v>6.0263613684008526</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="27">
         <f>Sheet2!J20/sheet!J35</f>
         <v>-1.2996820214593003</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="27">
         <f>sheet!J18/sheet!J35</f>
         <v>11.949414934060142</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="34">
+      <c r="G13" s="25"/>
+      <c r="H13" s="28">
         <f>Sheet1!J33/sheet!J51</f>
         <v>-0.1041105424294991</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="28">
         <f>Sheet1!J33/Sheet1!J12</f>
         <v>-3.2529722851803253</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="28">
         <f>Sheet1!J12/sheet!J27</f>
         <v>2.6425914888474934E-2</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="28">
         <f>Sheet1!J30/sheet!J27</f>
         <v>-8.3130816106964114E-2</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="28">
         <f>Sheet1!J38</f>
         <v>-2.76</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="34">
+      <c r="M13" s="25"/>
+      <c r="N13" s="28">
         <f>sheet!J40/sheet!J27</f>
         <v>0.17431254571596527</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="28">
         <f>sheet!J51/sheet!J27</f>
         <v>0.82568745428403467</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="28">
         <f>sheet!J40/sheet!J51</f>
         <v>0.21111201921690109</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="27">
         <f>Sheet1!J24/Sheet1!J26</f>
         <v>-23.912030294203319</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="27">
         <f>ABS(Sheet2!J20/(Sheet1!J26+Sheet2!J30))</f>
         <v>20.407788839302743</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="27">
         <f>sheet!J40/Sheet1!J43</f>
         <v>-2.6325193074020525</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="27">
         <f>Sheet2!J20/sheet!J40</f>
         <v>-0.35835799832150822</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="27">
         <f>ABS(Sheet1!J15/sheet!J15)</f>
         <v>0.93733764236605643</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="27">
         <f>Sheet1!J12/sheet!J14</f>
         <v>3.6606986899563321</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="27">
         <f>Sheet1!J12/sheet!J27</f>
         <v>2.6425914888474934E-2</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="27">
         <f>Sheet1!J12/(sheet!J18-sheet!J35)</f>
         <v>5.0214654831791411E-2</v>
       </c>
-      <c r="AA13" s="19" t="str">
+      <c r="AA13" s="13" t="str">
         <f>Sheet1!J43</f>
         <v>-567,140</v>
       </c>
-      <c r="AB13" s="19" t="str">
+      <c r="AB13" s="13" t="str">
         <f>Sheet3!J17</f>
         <v>-33.5x</v>
       </c>
-      <c r="AC13" s="19" t="str">
+      <c r="AC13" s="13" t="str">
         <f>Sheet3!J18</f>
         <v>-31.5x</v>
       </c>
-      <c r="AD13" s="19" t="str">
+      <c r="AD13" s="13" t="str">
         <f>Sheet3!J20</f>
         <v>-17.0x</v>
       </c>
-      <c r="AE13" s="19" t="str">
+      <c r="AE13" s="13" t="str">
         <f>Sheet3!J21</f>
         <v>1.9x</v>
       </c>
-      <c r="AF13" s="19" t="str">
+      <c r="AF13" s="13" t="str">
         <f>Sheet3!J22</f>
         <v>100.5x</v>
       </c>
-      <c r="AG13" s="19" t="str">
+      <c r="AG13" s="13" t="str">
         <f>Sheet3!J24</f>
         <v>-49.9x</v>
       </c>
-      <c r="AH13" s="19" t="str">
+      <c r="AH13" s="13" t="str">
         <f>Sheet3!J25</f>
         <v>2.7x</v>
       </c>
-      <c r="AI13" s="19" t="str">
+      <c r="AI13" s="13" t="str">
         <f>Sheet3!J31</f>
         <v/>
       </c>
-      <c r="AK13" s="19">
+      <c r="AK13" s="13">
         <f>Sheet3!J29</f>
         <v>11.7</v>
       </c>
-      <c r="AL13" s="19">
+      <c r="AL13" s="13">
         <f>Sheet3!J30</f>
         <v>1</v>
       </c>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-    </row>
-    <row r="14" spans="1:62" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:62" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
         <v>2020</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="30">
         <f>sheet!K18/sheet!K35</f>
         <v>6.0970995437350952</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="30">
         <f>(sheet!K18-sheet!K15)/sheet!K35</f>
         <v>5.1168004869361772</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="30">
         <f>sheet!K12/sheet!K35</f>
         <v>3.098454786026263</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="30">
         <f>Sheet2!K20/sheet!K35</f>
         <v>-1.8370309256780373</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <f>sheet!K18/sheet!K35</f>
         <v>6.0970995437350952</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="37">
+      <c r="G14" s="25"/>
+      <c r="H14" s="31">
         <f>Sheet1!K33/sheet!K51</f>
         <v>-0.25518717155896148</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="31">
         <f>Sheet1!K33/Sheet1!K12</f>
         <v>-3.313487406337456</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="31">
         <f>Sheet1!K12/sheet!K27</f>
         <v>5.8149143778311964E-2</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="31">
         <f>Sheet1!K30/sheet!K27</f>
         <v>-0.20231723401788781</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="31">
         <f>Sheet1!K38</f>
         <v>-3.8</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="37">
+      <c r="M14" s="25"/>
+      <c r="N14" s="31">
         <f>sheet!K40/sheet!K27</f>
         <v>0.24496026026047921</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="31">
         <f>sheet!K51/sheet!K27</f>
         <v>0.75503973973952077</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="31">
         <f>sheet!K40/sheet!K51</f>
         <v>0.32443359914404957</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="30">
         <f>Sheet1!K24/Sheet1!K26</f>
         <v>-26.315025750280988</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="30">
         <f>ABS(Sheet2!K20/(Sheet1!K26+Sheet2!K30))</f>
         <v>13.961096454772145</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="30">
         <f>sheet!K40/Sheet1!K43</f>
         <v>-2.1880352456187193</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="30">
         <f>Sheet2!K20/sheet!K40</f>
         <v>-0.45993600714338867</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="36">
+      <c r="U14" s="8"/>
+      <c r="V14" s="30">
         <f>ABS(Sheet1!K15/sheet!K15)</f>
         <v>0.7236595416477688</v>
       </c>
-      <c r="W14" s="36">
+      <c r="W14" s="30">
         <f>Sheet1!K12/sheet!K14</f>
         <v>7.7936911230113743</v>
       </c>
-      <c r="X14" s="36">
+      <c r="X14" s="30">
         <f>Sheet1!K12/sheet!K27</f>
         <v>5.8149143778311964E-2</v>
       </c>
-      <c r="Y14" s="36">
+      <c r="Y14" s="30">
         <f>Sheet1!K12/(sheet!K18-sheet!K35)</f>
         <v>0.18601314311516459</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="38" t="str">
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="32" t="str">
         <f>Sheet1!K43</f>
         <v>-767,755</v>
       </c>
-      <c r="AB14" s="38" t="str">
+      <c r="AB14" s="32" t="str">
         <f>Sheet3!K17</f>
         <v>-7.2x</v>
       </c>
-      <c r="AC14" s="38" t="str">
+      <c r="AC14" s="32" t="str">
         <f>Sheet3!K18</f>
         <v>-6.4x</v>
       </c>
-      <c r="AD14" s="38" t="str">
+      <c r="AD14" s="32" t="str">
         <f>Sheet3!K20</f>
         <v>-3.1x</v>
       </c>
-      <c r="AE14" s="38" t="str">
+      <c r="AE14" s="32" t="str">
         <f>Sheet3!K21</f>
         <v>0.9x</v>
       </c>
-      <c r="AF14" s="38" t="str">
+      <c r="AF14" s="32" t="str">
         <f>Sheet3!K22</f>
         <v>14.4x</v>
       </c>
-      <c r="AG14" s="38" t="str">
+      <c r="AG14" s="32" t="str">
         <f>Sheet3!K24</f>
         <v>-17.3x</v>
       </c>
-      <c r="AH14" s="38" t="str">
+      <c r="AH14" s="32" t="str">
         <f>Sheet3!K25</f>
         <v>1.4x</v>
       </c>
-      <c r="AI14" s="38" t="str">
+      <c r="AI14" s="32" t="str">
         <f>Sheet3!K31</f>
         <v/>
       </c>
-      <c r="AK14" s="38">
+      <c r="AK14" s="32">
         <f>Sheet3!K29</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AL14" s="38">
+      <c r="AL14" s="32">
         <f>Sheet3!K30</f>
         <v>3</v>
       </c>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
     </row>
     <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="26">
         <v>2021</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="27">
         <f>sheet!L18/sheet!L35</f>
         <v>9.9820419934583047</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="27">
         <f>(sheet!L18-sheet!L15)/sheet!L35</f>
         <v>8.6825836176274045</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="27">
         <f>sheet!L12/sheet!L35</f>
         <v>4.0609608553441428</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="27">
         <f>Sheet2!L20/sheet!L35</f>
         <v>-1.6379875496781908</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="27">
         <f>sheet!L18/sheet!L35</f>
         <v>9.9820419934583047</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="34">
+      <c r="G15" s="25"/>
+      <c r="H15" s="28">
         <f>Sheet1!L33/sheet!L51</f>
         <v>-0.4817798786245589</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="28">
         <f>Sheet1!L33/Sheet1!L12</f>
         <v>-3.1920299863349242</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="28">
         <f>Sheet1!L12/sheet!L27</f>
         <v>8.0112933576415551E-2</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="28">
         <f>Sheet1!L30/sheet!L27</f>
         <v>-0.24486332487235252</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="28">
         <f>Sheet1!L38</f>
         <v>-4.6900000000000004</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="34">
+      <c r="M15" s="25"/>
+      <c r="N15" s="28">
         <f>sheet!L40/sheet!L27</f>
         <v>0.46921219084689925</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="28">
         <f>sheet!L51/sheet!L27</f>
         <v>0.53078780915310075</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="28">
         <f>sheet!L40/sheet!L51</f>
         <v>0.88399202610842065</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="27">
         <f>Sheet1!L24/Sheet1!L26</f>
         <v>-131.45870777812209</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="27">
         <f>ABS(Sheet2!L20/(Sheet1!L26+Sheet2!L30))</f>
         <v>171.79232755440796</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="27">
         <f>sheet!L40/Sheet1!L43</f>
         <v>-7.1440270082716175</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="27">
         <f>Sheet2!L20/sheet!L40</f>
         <v>-0.14546485260770975</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="27">
         <f>ABS(Sheet1!L15/sheet!L15)</f>
         <v>1.2393531362067798</v>
       </c>
-      <c r="W15" s="33">
+      <c r="W15" s="27">
         <f>Sheet1!L12/sheet!L14</f>
         <v>8.1460525139331796</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X15" s="27">
         <f>Sheet1!L12/sheet!L27</f>
         <v>8.0112933576415551E-2</v>
       </c>
-      <c r="Y15" s="33">
+      <c r="Y15" s="27">
         <f>Sheet1!L12/(sheet!L18-sheet!L35)</f>
         <v>0.21404781147312466</v>
       </c>
-      <c r="AA15" s="19" t="str">
+      <c r="AA15" s="13" t="str">
         <f>Sheet1!L43</f>
         <v>-448,159</v>
       </c>
-      <c r="AB15" s="19" t="str">
+      <c r="AB15" s="13" t="str">
         <f>Sheet3!L17</f>
         <v>-28.6x</v>
       </c>
-      <c r="AC15" s="19" t="str">
+      <c r="AC15" s="13" t="str">
         <f>Sheet3!L18</f>
         <v>-22.1x</v>
       </c>
-      <c r="AD15" s="19" t="str">
+      <c r="AD15" s="13" t="str">
         <f>Sheet3!L20</f>
         <v>-40.5x</v>
       </c>
-      <c r="AE15" s="19" t="str">
+      <c r="AE15" s="13" t="str">
         <f>Sheet3!L21</f>
         <v>2.9x</v>
       </c>
-      <c r="AF15" s="19" t="str">
+      <c r="AF15" s="13" t="str">
         <f>Sheet3!L22</f>
         <v>28.3x</v>
       </c>
-      <c r="AG15" s="19" t="str">
+      <c r="AG15" s="13" t="str">
         <f>Sheet3!L24</f>
         <v>-6.6x</v>
       </c>
-      <c r="AH15" s="19" t="str">
+      <c r="AH15" s="13" t="str">
         <f>Sheet3!L25</f>
         <v>3.9x</v>
       </c>
-      <c r="AI15" s="19" t="str">
+      <c r="AI15" s="13" t="str">
         <f>Sheet3!L31</f>
         <v/>
       </c>
-      <c r="AK15" s="19">
+      <c r="AK15" s="13">
         <f>Sheet3!L29</f>
         <v>2.9</v>
       </c>
-      <c r="AL15" s="19">
+      <c r="AL15" s="13">
         <f>Sheet3!L30</f>
         <v>3</v>
       </c>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-    </row>
-    <row r="16" spans="1:62" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+    </row>
+    <row r="16" spans="1:62" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
         <v>2022</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="30">
         <f>sheet!M18/sheet!M35</f>
         <v>8.1607248541555109</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="30">
         <f>(sheet!M18-sheet!M15)/sheet!M35</f>
         <v>7.1985927533372793</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="30">
         <f>sheet!M12/sheet!M35</f>
         <v>3.6449614369322401</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <f>Sheet2!M20/sheet!M35</f>
         <v>-2.5637206549615308</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <f>sheet!M18/sheet!M35</f>
         <v>8.1607248541555109</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="37">
+      <c r="G16" s="25"/>
+      <c r="H16" s="31">
         <f>Sheet1!M33/sheet!M51</f>
         <v>-8.3234058587570797E-2</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="31">
         <f>Sheet1!M33/Sheet1!M12</f>
         <v>-0.58075433623216255</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="31">
         <f>Sheet1!M12/sheet!M27</f>
         <v>9.2666138324680986E-2</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="31">
         <f>Sheet1!M30/sheet!M27</f>
         <v>-5.7076072341297052E-2</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="31">
         <f>Sheet1!M38</f>
         <v>-0.77</v>
       </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="37">
+      <c r="M16" s="25"/>
+      <c r="N16" s="31">
         <f>sheet!M40/sheet!M27</f>
         <v>0.35343460877463245</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="31">
         <f>sheet!M51/sheet!M27</f>
         <v>0.64656539122536749</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="31">
         <f>sheet!M40/sheet!M51</f>
         <v>0.54663397325490148</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="30">
         <f>Sheet1!M24/Sheet1!M26</f>
         <v>2.3842495094665255</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="30">
         <f>ABS(Sheet2!M20/(Sheet1!M26+Sheet2!M30))</f>
         <v>3.6852727100860196</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="30">
         <f>sheet!M40/Sheet1!M43</f>
         <v>-3.8190847142546489</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="30">
         <f>Sheet2!M20/sheet!M40</f>
         <v>-0.27502969182480891</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="36">
+      <c r="U16" s="8"/>
+      <c r="V16" s="30">
         <f>ABS(Sheet1!M15/sheet!M15)</f>
         <v>2.9402204690581732</v>
       </c>
-      <c r="W16" s="36">
+      <c r="W16" s="30">
         <f>Sheet1!M12/sheet!M14</f>
         <v>6.6657912604568343</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="30">
         <f>Sheet1!M12/sheet!M27</f>
         <v>9.2666138324680986E-2</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="30">
         <f>Sheet1!M12/(sheet!M18-sheet!M35)</f>
         <v>0.34130773025193767</v>
       </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="38" t="str">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="32" t="str">
         <f>Sheet1!M43</f>
         <v>-519,641</v>
       </c>
-      <c r="AB16" s="38" t="str">
+      <c r="AB16" s="32" t="str">
         <f>Sheet3!M17</f>
         <v>-7.3x</v>
       </c>
-      <c r="AC16" s="38" t="str">
+      <c r="AC16" s="32" t="str">
         <f>Sheet3!M18</f>
         <v>-6.0x</v>
       </c>
-      <c r="AD16" s="38" t="str">
+      <c r="AD16" s="32" t="str">
         <f>Sheet3!M20</f>
         <v>-6.9x</v>
       </c>
-      <c r="AE16" s="38" t="str">
+      <c r="AE16" s="32" t="str">
         <f>Sheet3!M21</f>
         <v>0.7x</v>
       </c>
-      <c r="AF16" s="38" t="str">
+      <c r="AF16" s="32" t="str">
         <f>Sheet3!M22</f>
         <v>6.6x</v>
       </c>
-      <c r="AG16" s="38" t="str">
+      <c r="AG16" s="32" t="str">
         <f>Sheet3!M24</f>
         <v>-8.7x</v>
       </c>
-      <c r="AH16" s="38" t="str">
+      <c r="AH16" s="32" t="str">
         <f>Sheet3!M25</f>
         <v>0.9x</v>
       </c>
-      <c r="AI16" s="38" t="str">
+      <c r="AI16" s="32" t="str">
         <f>Sheet3!M31</f>
         <v/>
       </c>
-      <c r="AK16" s="38">
+      <c r="AK16" s="32">
         <f>Sheet3!M29</f>
         <v>0.9</v>
       </c>
-      <c r="AL16" s="38">
+      <c r="AL16" s="32">
         <f>Sheet3!M30</f>
         <v>3</v>
       </c>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
     </row>
     <row r="17" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="G17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="AC17" s="40"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
+      <c r="G17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="AC17" s="34"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
     </row>
     <row r="18" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8"/>
+      <c r="BJ18" s="8"/>
     </row>
     <row r="19" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="E19" s="31"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="21" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="D21" s="31"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="2:62" x14ac:dyDescent="0.2">
-      <c r="B22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="24"/>
+      <c r="J22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
